--- a/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/其他采矿业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/其他采矿业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,16 @@
           <t>其他采矿业出口交货值_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>其他采矿业出口交货值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -472,12 +477,15 @@
       </c>
       <c r="E2" t="n">
         <v>-100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -491,12 +499,15 @@
       </c>
       <c r="E3" t="n">
         <v>-100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -510,12 +521,15 @@
       </c>
       <c r="E4" t="n">
         <v>-100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -529,12 +543,15 @@
       </c>
       <c r="E5" t="n">
         <v>-100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -548,12 +565,15 @@
       </c>
       <c r="E6" t="n">
         <v>-100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -567,12 +587,15 @@
       </c>
       <c r="E7" t="n">
         <v>-100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -586,12 +609,15 @@
       </c>
       <c r="E8" t="n">
         <v>-100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -605,12 +631,15 @@
       </c>
       <c r="E9" t="n">
         <v>-100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -624,12 +653,15 @@
       </c>
       <c r="E10" t="n">
         <v>-100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -643,12 +675,15 @@
       </c>
       <c r="E11" t="n">
         <v>-100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -662,12 +697,15 @@
       </c>
       <c r="E12" t="n">
         <v>-100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -681,12 +719,15 @@
       </c>
       <c r="E13" t="n">
         <v>-100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -700,12 +741,15 @@
       </c>
       <c r="E14" t="n">
         <v>-100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -719,12 +763,15 @@
       </c>
       <c r="E15" t="n">
         <v>-100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -738,12 +785,15 @@
       </c>
       <c r="E16" t="n">
         <v>-100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -757,12 +807,15 @@
       </c>
       <c r="E17" t="n">
         <v>-100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -776,12 +829,15 @@
       </c>
       <c r="E18" t="n">
         <v>-100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -792,11 +848,14 @@
         <v>0</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -807,11 +866,14 @@
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -822,11 +884,14 @@
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -837,11 +902,14 @@
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -852,11 +920,14 @@
         <v>0</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -867,11 +938,14 @@
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -882,11 +956,14 @@
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -897,30 +974,32 @@
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-100</v>
-      </c>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="n">
-        <v>-100</v>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -931,11 +1010,14 @@
         <v>0</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -946,11 +1028,14 @@
         <v>0</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -961,11 +1046,14 @@
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -976,11 +1064,14 @@
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -991,11 +1082,14 @@
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1006,26 +1100,36 @@
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-100</v>
+      </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1038,13 +1142,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1057,13 +1164,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1076,13 +1186,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1095,13 +1208,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1114,13 +1230,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1133,13 +1252,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1152,13 +1274,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1171,32 +1296,34 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1209,13 +1336,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1228,28 +1358,38 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1262,13 +1402,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1281,13 +1424,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1300,13 +1446,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1319,13 +1468,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1338,13 +1490,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1357,13 +1512,16 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1376,6 +1534,9 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/其他采矿业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2012-2017)/其他采矿业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,11 @@
           <t>其他采矿业出口交货值_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>其他采矿业出口交货值</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -477,15 +472,12 @@
       </c>
       <c r="E2" t="n">
         <v>-100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -499,15 +491,12 @@
       </c>
       <c r="E3" t="n">
         <v>-100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -521,15 +510,12 @@
       </c>
       <c r="E4" t="n">
         <v>-100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -543,15 +529,12 @@
       </c>
       <c r="E5" t="n">
         <v>-100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -565,15 +548,12 @@
       </c>
       <c r="E6" t="n">
         <v>-100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -587,15 +567,12 @@
       </c>
       <c r="E7" t="n">
         <v>-100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -609,15 +586,12 @@
       </c>
       <c r="E8" t="n">
         <v>-100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -631,15 +605,12 @@
       </c>
       <c r="E9" t="n">
         <v>-100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -653,15 +624,12 @@
       </c>
       <c r="E10" t="n">
         <v>-100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -675,15 +643,12 @@
       </c>
       <c r="E11" t="n">
         <v>-100</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -697,9 +662,6 @@
       </c>
       <c r="E12" t="n">
         <v>-100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -720,9 +682,6 @@
       <c r="E13" t="n">
         <v>-100</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -742,9 +701,6 @@
       <c r="E14" t="n">
         <v>-100</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -764,9 +720,6 @@
       <c r="E15" t="n">
         <v>-100</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -786,9 +739,6 @@
       <c r="E16" t="n">
         <v>-100</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -808,9 +758,6 @@
       <c r="E17" t="n">
         <v>-100</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -830,14 +777,11 @@
       <c r="E18" t="n">
         <v>-100</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -848,14 +792,11 @@
         <v>0</v>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -866,14 +807,11 @@
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -884,14 +822,11 @@
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -902,14 +837,11 @@
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -920,14 +852,11 @@
         <v>0</v>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -938,14 +867,11 @@
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -956,14 +882,11 @@
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -974,32 +897,30 @@
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-100</v>
+      </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>0</v>
+      <c r="E27" t="n">
+        <v>-100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1010,14 +931,11 @@
         <v>0</v>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1028,14 +946,11 @@
         <v>0</v>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1046,14 +961,11 @@
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1064,14 +976,11 @@
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1082,14 +991,11 @@
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1100,36 +1006,26 @@
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-100</v>
-      </c>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="n">
-        <v>-100</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1142,16 +1038,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1164,16 +1057,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1186,16 +1076,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1208,16 +1095,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1230,16 +1114,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1252,16 +1133,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1274,16 +1152,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1296,34 +1171,32 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1336,16 +1209,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1358,38 +1228,28 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1402,16 +1262,13 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1424,16 +1281,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1446,16 +1300,13 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1468,16 +1319,13 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1490,16 +1338,13 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1512,16 +1357,13 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1534,9 +1376,6 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
         <v>0</v>
       </c>
     </row>
